--- a/heatLoss/heatLoss/Resources/template.xlsx
+++ b/heatLoss/heatLoss/Resources/template.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\учеба\заочка\Диплом\heatloss\heatLoss\heatLoss\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
+    <sheet name="Результаты расчёта" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -83,9 +84,6 @@
     <t>Декабрь</t>
   </si>
   <si>
-    <t>Средняя за межотопительный период</t>
-  </si>
-  <si>
     <t>Средняя за отопительный период</t>
   </si>
   <si>
@@ -105,6 +103,24 @@
   </si>
   <si>
     <t>tгрср.м</t>
+  </si>
+  <si>
+    <t>Средняя за год</t>
+  </si>
+  <si>
+    <t>Наружный диаметр</t>
+  </si>
+  <si>
+    <t>Длинна трубопровода</t>
+  </si>
+  <si>
+    <t>Нормативные потреи</t>
+  </si>
+  <si>
+    <t>Значения</t>
+  </si>
+  <si>
+    <t>Потери по длинне</t>
   </si>
 </sst>
 </file>
@@ -150,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -182,21 +198,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,252 +532,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -762,4 +796,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/heatLoss/heatLoss/Resources/template.xlsx
+++ b/heatLoss/heatLoss/Resources/template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Потери по длинне</t>
+  </si>
+  <si>
+    <t>ДТ</t>
+  </si>
+  <si>
+    <t>Потеря</t>
+  </si>
+  <si>
+    <t>Таблицы</t>
   </si>
 </sst>
 </file>
@@ -212,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -231,6 +240,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +829,7 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -830,17 +845,124 @@
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/heatLoss/heatLoss/Resources/template.xlsx
+++ b/heatLoss/heatLoss/Resources/template.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
     <sheet name="Результаты расчёта" sheetId="2" r:id="rId2"/>
+    <sheet name="Точный расчёт" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -130,12 +131,21 @@
   </si>
   <si>
     <t>Таблицы</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>КУ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -232,6 +242,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -240,9 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,252 +560,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -817,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,17 +858,17 @@
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
@@ -864,100 +877,100 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -966,4 +979,30 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/heatLoss/heatLoss/Resources/template.xlsx
+++ b/heatLoss/heatLoss/Resources/template.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
     <sheet name="Результаты расчёта" sheetId="2" r:id="rId2"/>
-    <sheet name="Точный расчёт" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -130,13 +129,16 @@
     <t>Потеря</t>
   </si>
   <si>
-    <t>Таблицы</t>
-  </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
-    <t>КУ</t>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>Справочные таблицы</t>
+  </si>
+  <si>
+    <t>Расчёт с разбивкой по периодам</t>
   </si>
 </sst>
 </file>
@@ -146,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +173,17 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +195,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,21 +234,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,23 +250,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,7 +557,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,252 +573,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -828,10 +841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,6 +853,9 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,16 +875,16 @@
         <v>31</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
@@ -877,132 +893,419 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F1:F1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>